--- a/Data/Listings/maplet.xlsx
+++ b/Data/Listings/maplet.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,9 @@
     </font>
     <font>
       <color rgb="00008000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -70,16 +73,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U109"/>
+  <dimension ref="A1:U110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -657,7 +661,7 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -772,7 +776,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -885,7 +889,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -1012,7 +1016,7 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -1130,7 +1134,7 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -1237,7 +1241,7 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1342,7 +1346,7 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1460,7 +1464,7 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1588,7 +1592,7 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1696,7 +1700,7 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1801,7 +1805,7 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1911,7 +1915,7 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -2026,7 +2030,7 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -2122,7 +2126,7 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -2238,7 +2242,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -2346,7 +2350,7 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -2450,7 +2454,7 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
@@ -2554,7 +2558,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -2656,7 +2660,7 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -2763,7 +2767,7 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -2868,7 +2872,7 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R22" t="inlineStr">
         <is>
@@ -2976,7 +2980,7 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -3113,7 +3117,7 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R24" t="inlineStr">
         <is>
@@ -3240,7 +3244,7 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -3380,7 +3384,7 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -3490,7 +3494,7 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -3601,7 +3605,7 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -3708,7 +3712,7 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -3816,7 +3820,7 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -3930,7 +3934,7 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -4040,7 +4044,7 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -4150,7 +4154,7 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R33" t="inlineStr">
         <is>
@@ -4272,7 +4276,7 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -4394,7 +4398,7 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R35" t="inlineStr">
         <is>
@@ -4420,17 +4424,17 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HYD-1612</t>
+          <t>HRE-Res-Map-01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6925794200</t>
+          <t>6925793846</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14061890.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14770930.html</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -4454,10 +4458,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6900000</v>
+        <v>5200000</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -4466,40 +4470,40 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Type 3E</t>
+          <t>Type 3M</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>2406</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>3150</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Single Row | Best Location | Large Plot</t>
+          <t>Exclusive | 3M | Green Belt | Landscaped</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Zak Castillo</t>
+          <t>Nicholas Holbrook</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>HYDE REAL ESTATE</t>
+          <t>Holbrook Real Estate</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4509,20 +4513,30 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>Zak Castillo &amp;amp; Hyde Real Estate are delighted to newly bring to the market this 5 Bedroom Villa situated in the prestigious Maple, Dubai Hills community. This large plot single row villa just a short minute walk from the community park, pools &amp;amp; gym make this  a desirable home for a family as well as the perfect investment for a strong return on rental income.
-- 5 Bedroom Plus Maids Room
-- 4 Bathroom
-- Single Row
-- Perfect Location
-- Landscaped
-- 3150 Sqft Plot
-- Next to Community Facilities 
-- Ready
-- Great Condition
-- Spacious Living &amp;amp; Dining Area
-Hyde prides itself in being true community experts in Townhouses, Plots &amp;amp; Ready Villas in one of the most sought after communities in Dubai, Dubai Hills Estate.
-For any further information contact Zak Castillo and we can assist with any questions or queries you may have proceeding forward.
-Please note, all measurements and information are given to the best of our knowledge. Hyde Real Estates accepts no liability for any incorrect details.</t>
+          <t xml:space="preserve">Perfect Investor or End User Villa | Green Belt Plot | Tenanted
+- 4 Bedrooms Type 3M
+- Green Belt Plot
+- 4 Bathrooms
+- Maids Room
+- Open Kitchen
+- Open Plan Dining and Living Area
+- BUA 2,387 Sq. Ft
+- 2 Parking Spaces
+- Lootah Main Gas
+- Chiller Included in DEWA
+- Etisilat or Du
+Prime Location:
+Enjoy seamless connectivity within the city, making daily commutes and travel a breeze. Maple - Dubai Hills is strategically located off Umm Suqeim and Al Khail road, providing residents easy access to DIFC, Business Bay, Downtown, JLT and Dubai Marina.
+World-Class Shopping:
+Immerse yourself in a world of luxury brands and unique finds at the state-of-the-art Dubai Hills Mall.
+Tranquil Community Park:
+Escape the urban hustle and unwind in the tranquility of our meticulously designed community park along with the desirable Dubai Hills Splash Park, which is a huge hit for families and tourists.
+Golf Enthusiast&amp;#39;s Paradise:
+The Dubai Hills Estate Golf Club provides a picturesque backdrop for golf enthusiasts to refine their skills.
+Viewing:
+Call Nicholas Holbrook to schedule an exclusive viewing and explore the unparalleled elegance of Maple Dubai Hills.
+Holbrook Real Estate operates under the Penbrook Real Estate LLC Trade License
+</t>
         </is>
       </c>
     </row>
@@ -4599,7 +4613,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R37" t="inlineStr">
         <is>
@@ -4709,7 +4723,7 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R38" t="inlineStr">
         <is>
@@ -4820,7 +4834,7 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R39" t="inlineStr">
         <is>
@@ -4955,7 +4969,7 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R40" t="inlineStr">
         <is>
@@ -5080,7 +5094,7 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R41" t="inlineStr">
         <is>
@@ -5191,7 +5205,7 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="R42" t="inlineStr">
         <is>
@@ -5304,7 +5318,7 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R43" t="inlineStr">
         <is>
@@ -5424,7 +5438,7 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R44" t="inlineStr">
         <is>
@@ -5532,7 +5546,7 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="R45" t="inlineStr">
         <is>
@@ -5646,7 +5660,7 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R46" t="inlineStr">
         <is>
@@ -5754,7 +5768,7 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R47" t="inlineStr">
         <is>
@@ -5862,7 +5876,7 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R48" t="inlineStr">
         <is>
@@ -5974,7 +5988,7 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R49" t="inlineStr">
         <is>
@@ -6082,7 +6096,7 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R50" t="inlineStr">
         <is>
@@ -6192,7 +6206,7 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R51" t="inlineStr">
         <is>
@@ -6297,7 +6311,7 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R52" t="inlineStr">
         <is>
@@ -6404,7 +6418,7 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R53" t="inlineStr">
         <is>
@@ -6515,7 +6529,7 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R54" t="inlineStr">
         <is>
@@ -6625,7 +6639,7 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R55" t="inlineStr">
         <is>
@@ -6733,7 +6747,7 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R56" t="inlineStr">
         <is>
@@ -6841,7 +6855,7 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R57" t="inlineStr">
         <is>
@@ -6885,17 +6899,17 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>L-831</t>
+          <t>L-8567</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>6925792910</t>
+          <t>6928564681</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14310504.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14774428.html</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -6910,61 +6924,61 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Maple 1</t>
+          <t>Maple 2</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>6100000</v>
+        <v>7100000</v>
       </c>
       <c r="I58" t="n">
+        <v>5</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Townhouse</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Type 3E</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>2734</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>3481</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>New to Market | VOT | Big Plot | Green Belt</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>4</v>
       </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Townhouse</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>Type 2E</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>3065</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>EXCLUSIVE|VOT|SINGLE ROW|FURNISHED|UPGRADED</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>2025-05-20</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>62</v>
-      </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Olga Petrova</t>
+          <t>Gurnam Hallaith</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Keller Williams Sheikh Zayed Road</t>
+          <t>EQUITY REAL ESTATES L.L.C</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
@@ -6974,21 +6988,20 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>Keller Williams Real Estate Dubai is pleased to offer this majestic 4-bedroom townhouse in Maple 1, Dubai Hills Estate.
-PROPERTY DETAILS:
--Size: 3,065.45 sq. ft
--Premium and high-end finishing
--4BR + maids room
-- 4 Bathrooms
-FEATURES AND AMENITIES:
--Private parking spaces
--Swimming pool
--Kids’ play area
--1,450,000 sq. m of parks and open space
--Basketball and table tennis courts
--18-hole championship golf course
--Nearby cafes, restaurants and mosque
-Set amidst a verdant landscape, Maple townhouses in Dubai Hills Estate have been planned along with a network of green corridors that connect the districts and provide shaded pathways, cycling and jogging tracks, exercise courses, as well as community playgrounds, offering the perfect environment for family life. The lush landscaping also promotes healthier communities and social interaction, while offering easy access to all of the neighbourhood’s amenities.</t>
+          <t>Equity is delighted to offer this rare 5-bedroom, 4-bathroom corner unit in the sought-after Maple 2 community, ideal for families seeking extra outdoor space.
+- Big Plot
+- VOT
+- Maids Room
+- Spacious Open-Plan Living and Dining Area
+- 3481.48 Sq Ft Plot
+- Floor-to-Ceiling Windows for Natural Light
+- Permit No.: 6928564681
+Presenting this stunning 5-bedroom, 5-bathroom corner unit in the sought-after Maple community. Boasting a larger plot than the standard layout, this home offers enhanced space and privacy, backing directly onto the lush green belt. Ideally located just a short walk from the community pool, gym, and park, it’s perfect for families seeking both convenience and tranquility. 
+The villa features a spacious and bright interior, with large windows allowing for plenty of natural light throughout. Designed with modern finishes and maintained in excellent condition, it includes a well-sized maid’s room and generous living areas. Vacant on transfer, this home is move-in ready and ideal for end users or investors alike.
+Please be advised that all measurements and information are provided to the best of our knowledge. Equity disclaims any liability for inaccuracies or discrepancies.
+Equity
+RERA ORN: 43321
+Address: Office 1902, Boulevard Plaza Tower 2, Downtown Dubai, Dubai, UAE</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7078,7 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R59" t="inlineStr">
         <is>
@@ -7176,7 +7189,7 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R60" t="inlineStr">
         <is>
@@ -7293,7 +7306,7 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R61" t="inlineStr">
         <is>
@@ -7404,7 +7417,7 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="R62" t="inlineStr">
         <is>
@@ -7523,7 +7536,7 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R63" t="inlineStr">
         <is>
@@ -7637,7 +7650,7 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R64" t="inlineStr">
         <is>
@@ -7661,7 +7674,7 @@
 4 Bathrooms
 2 Parking Spaces
 Property Details:
-• BUA : 3,423 Sq. ft. 
+• BUA : 2,462 Sq. ft. 
 • Plot: 3,074.07 Sq. ft. 
 • Maid&amp;#39;s Room
 • Landscaped
@@ -7763,7 +7776,7 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R65" t="inlineStr">
         <is>
@@ -7871,7 +7884,7 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R66" t="inlineStr">
         <is>
@@ -7979,7 +7992,7 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R67" t="inlineStr">
         <is>
@@ -8017,17 +8030,17 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>PF-VS-141060</t>
+          <t>PB-S-12671</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>6991662529</t>
+          <t>6991640569</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14768369.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14774618.html</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -8051,10 +8064,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>5499999</v>
+        <v>7400000</v>
       </c>
       <c r="I68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -8063,27 +8076,27 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Type 2M</t>
+          <t>Type 3E</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2768</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>Single Row | Vacant | Unfurnished</t>
+          <t>Upgraded and Extended | Owner Occupied</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="Q68" t="n">
@@ -8091,20 +8104,132 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
+          <t>Ben Greenwood</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Arabian Estates</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Arabian Estates is delighted to Exclusively present this 5 bedroom property in Maple 3, Dubai Hills Estate. 
+With a range of internal and external modifications and upgrades, this property offers the perfect chance for any end user to move in hassle free. The open plan living in this property allows any new owner to seamlessly blend inside/outside living making the most of what this stunning home has to offer.
+Key features
+•	Upgraded Kitchen
+•	Upgraded Flooring
+•	Entrance Extension
+•	Vacant on Transfer
+•	Corner Plot, Greenbelt Location
+•	Walking Distance to Communal Pool &amp;amp; Gym
+•	2,700 sq.ft BUA
+•	3,504 sq.ft Plot
+•	Immaculate Condition
+•	5 Bedroom Plus Maids End Unit
+Agent Contact Details – Ben Greenwood, Executive Director, Arabian Estates 
+Maple 3 within Dubai Hills Estate is part of one of the most ambitious, centrally-located developments in Dubai. an inspiring green gateway focused on sustainable living in harmony with nature.
+This exquisite 5-bedroom villa offers an unparalleled blend of luxury, comfort, and modern living. Designed with spaciousness and elegance in mind, the villa features a bright, open-plan layout with high ceilings and large windows, allowing for an abundance of natural light throughout.
+These Elegant homes are designed exclusively for those with a taste for contemporary living. This is where convenience meets you in the comfort of your home. Located between Sheikh Mohammad Bin Zayed Road and Al Khail Road, residents are mere minutes away from Downtown Dubai and other business, financial, retail, and tourism landmarks.</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>PF-VS-141060</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6991662529</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14768369.html</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Maple at Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Maple 3</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5499999</v>
+      </c>
+      <c r="I69" t="n">
+        <v>4</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Townhouse</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Type 2M</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>Single Row | Vacant | Unfurnished</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>2025-07-17</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>Ali Hmoud</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>fam Properties - Branch 5</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U68" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>Introducing Maple 3 Villas: Luxury Living Redefined
 Nestled within the prestigious community of [Location], Maple 3 Villas exemplify the epitome of refined living. This exclusive enclave of exquisite villas redefines luxury, combining timeless architectural design, meticulous craftsmanship, and modern amenities to create an unparalleled residential experience.
@@ -8127,97 +8252,97 @@
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
         <is>
           <t>PN-MAPB02-3258-0</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>6928566045</t>
         </is>
       </c>
-      <c r="C69" s="2" t="inlineStr">
+      <c r="C70" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14736378.html</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H69" t="n">
+      <c r="H70" t="n">
         <v>5250000</v>
       </c>
-      <c r="I69" t="n">
+      <c r="I70" t="n">
         <v>3</v>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>Type 2M</t>
         </is>
       </c>
-      <c r="M69" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr">
+      <c r="N70" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O69" t="inlineStr">
+      <c r="O70" t="inlineStr">
         <is>
           <t>3 Bedroom | Prime Location | Unfurnished</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="P70" t="inlineStr">
         <is>
           <t>2025-07-14</t>
         </is>
       </c>
-      <c r="Q69" t="n">
-        <v>7</v>
-      </c>
-      <c r="R69" t="inlineStr">
+      <c r="Q70" t="n">
+        <v>8</v>
+      </c>
+      <c r="R70" t="inlineStr">
         <is>
           <t>Basid Siddique</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>Property Network</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t xml:space="preserve">Property Network is pleased to introduce this beautifully designed 3-bedroom townhouse in the sought-after Dubai Hills Estate.
 PROPERTY DETAILS:
@@ -8246,97 +8371,97 @@
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
         <is>
           <t>RB11654</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>6928566229</t>
         </is>
       </c>
-      <c r="C70" s="2" t="inlineStr">
+      <c r="C71" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14631479.html</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H70" t="n">
+      <c r="H71" t="n">
         <v>6800000</v>
       </c>
-      <c r="I70" t="n">
+      <c r="I71" t="n">
         <v>4</v>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>4348</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N71" t="inlineStr">
         <is>
           <t>4348</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O71" t="inlineStr">
         <is>
           <t>LARGEST PLOT-UPGRADED-PARK FACING</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="Q70" t="n">
-        <v>20</v>
-      </c>
-      <c r="R70" t="inlineStr">
+      <c r="Q71" t="n">
+        <v>21</v>
+      </c>
+      <c r="R71" t="inlineStr">
         <is>
           <t>Theo Syme Dey</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U70" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>Discover one of the most exceptional homes in the Maple community, Dubai Hills — offering the largest available plot in the most sought-after location, directly backing the park.
 Lovingly upgraded by long-term owners, the property features elegant new tiling on the ground floor and warm wooden flooring upstairs. The kitchen has been fully renovated with high-end built-in appliances and custom cabinetry, flowing seamlessly into a beautifully landscaped garden with a bespoke outdoor seating area — perfect for entertaining.
@@ -8353,97 +8478,97 @@
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
         <is>
           <t>REAP-2701</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>6925794200</t>
         </is>
       </c>
-      <c r="C71" s="2" t="inlineStr">
+      <c r="C72" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14257265.html</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H71" t="n">
+      <c r="H72" t="n">
         <v>6900000</v>
       </c>
-      <c r="I71" t="n">
+      <c r="I72" t="n">
         <v>5</v>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M71" t="inlineStr">
+      <c r="M72" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="N72" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O71" t="inlineStr">
+      <c r="O72" t="inlineStr">
         <is>
           <t>Single Row | Best Location | Vacant Soon</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>2025-05-14</t>
         </is>
       </c>
-      <c r="Q71" t="n">
-        <v>68</v>
-      </c>
-      <c r="R71" t="inlineStr">
+      <c r="Q72" t="n">
+        <v>69</v>
+      </c>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Muaz Ali</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>Reap Real Estate Brokers</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U71" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>REAP Real Estate Brokers LLC welcomes you to your new home in Maple. This beautifully crafted 5-bedroom villa with a maid’s room offers the perfect blend of comfort, space, and modern living. 
 Property Highlights:
@@ -8475,97 +8600,97 @@
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
         <is>
           <t>RL-133456</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>6928564973</t>
         </is>
       </c>
-      <c r="C72" s="2" t="inlineStr">
+      <c r="C73" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14636559.html</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H72" t="n">
-        <v>6100000</v>
-      </c>
-      <c r="I72" t="n">
+      <c r="H73" t="n">
+        <v>5750000</v>
+      </c>
+      <c r="I73" t="n">
         <v>4</v>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M72" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="N73" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O72" t="inlineStr">
+      <c r="O73" t="inlineStr">
         <is>
           <t>Greenbelt | Type 2E Corner | Call Rey</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="Q72" t="n">
-        <v>20</v>
-      </c>
-      <c r="R72" t="inlineStr">
+      <c r="Q73" t="n">
+        <v>21</v>
+      </c>
+      <c r="R73" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U72" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>Rey and White and Co Real Estate are proud to bring this immaculate 4-bedroom, plus maid townhouse to the Maple 2, Dubai Hills Estate market. This property is backing onto a greenbelt in one of the prime locations in the development.
 Property Details:
@@ -8600,97 +8725,97 @@
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
         <is>
           <t>RL-141725</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>6991660943</t>
         </is>
       </c>
-      <c r="C73" s="2" t="inlineStr">
+      <c r="C74" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14517234.html</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H73" t="n">
+      <c r="H74" t="n">
         <v>6000000</v>
       </c>
-      <c r="I73" t="n">
+      <c r="I74" t="n">
         <v>4</v>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M73" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="N74" t="inlineStr">
         <is>
           <t>3413</t>
         </is>
       </c>
-      <c r="O73" t="inlineStr">
+      <c r="O74" t="inlineStr">
         <is>
           <t>Exclusive | Park Backing | 3.4K sqft plot</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>2025-06-17</t>
         </is>
       </c>
-      <c r="Q73" t="n">
-        <v>34</v>
-      </c>
-      <c r="R73" t="inlineStr">
+      <c r="Q74" t="n">
+        <v>35</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U73" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>Rey and White and Co Real Estate are proud to bring this immaculate 4-bedroom, plus maid townhouse to the Maple 3, Dubai Hills Estate market. This property is backing onto a park in one of the prime locations in the development.
 Property Details:
@@ -8724,97 +8849,97 @@
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
         <is>
           <t>RL-141726</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>6925793468</t>
         </is>
       </c>
-      <c r="C74" s="2" t="inlineStr">
+      <c r="C75" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14517233.html</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H74" t="n">
+      <c r="H75" t="n">
         <v>7499999</v>
       </c>
-      <c r="I74" t="n">
+      <c r="I75" t="n">
         <v>5</v>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M74" t="inlineStr">
+      <c r="M75" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="N75" t="inlineStr">
         <is>
           <t>3828</t>
         </is>
       </c>
-      <c r="O74" t="inlineStr">
+      <c r="O75" t="inlineStr">
         <is>
           <t>Third Largest Plot | Greenbelt | Vacant</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>2025-06-17</t>
         </is>
       </c>
-      <c r="Q74" t="n">
-        <v>34</v>
-      </c>
-      <c r="R74" t="inlineStr">
+      <c r="Q75" t="n">
+        <v>35</v>
+      </c>
+      <c r="R75" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U74" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>Rey and White &amp;amp; Co Real Estate are proud to bring to the market this immaculate 5-bedroom, plus maid townhouse in Maple 1, Dubai Hills Estate. This property is in one of the prime locations in the development.
 Property Details:
@@ -8850,97 +8975,97 @@
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
         <is>
           <t>RL-142661</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>6991636909</t>
         </is>
       </c>
-      <c r="C75" s="2" t="inlineStr">
+      <c r="C76" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14641595.html</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="H76" t="n">
         <v>5800000</v>
       </c>
-      <c r="I75" t="n">
+      <c r="I76" t="n">
         <v>4</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M75" t="inlineStr">
+      <c r="M76" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>2931</t>
         </is>
       </c>
-      <c r="O75" t="inlineStr">
+      <c r="O76" t="inlineStr">
         <is>
           <t>True Corner | Type2E | Vacant on Transfer</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="P76" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
       </c>
-      <c r="Q75" t="n">
-        <v>19</v>
-      </c>
-      <c r="R75" t="inlineStr">
+      <c r="Q76" t="n">
+        <v>20</v>
+      </c>
+      <c r="R76" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U75" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>Rey and White and Co Real Estate are proud to bring this immaculate 4-bedroom, plus maid townhouse to the Maple 3, Dubai Hills Estate market. This property is backing onto one of the prime locations in the development.
 Property Details:
@@ -8977,97 +9102,97 @@
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
         <is>
           <t>RL-142975</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>6928564509</t>
         </is>
       </c>
-      <c r="C76" s="2" t="inlineStr">
+      <c r="C77" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14652978.html</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="H77" t="n">
         <v>5800000</v>
       </c>
-      <c r="I76" t="n">
+      <c r="I77" t="n">
         <v>4</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="J77" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
+      <c r="K77" t="inlineStr">
         <is>
           <t>Type 3M</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
+      <c r="M77" t="inlineStr">
         <is>
           <t>2406</t>
         </is>
       </c>
-      <c r="N76" t="inlineStr">
+      <c r="N77" t="inlineStr">
         <is>
           <t>2246</t>
         </is>
       </c>
-      <c r="O76" t="inlineStr">
+      <c r="O77" t="inlineStr">
         <is>
           <t>Greenbelt | Upgraded | Vacant on Transfer</t>
         </is>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="P77" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="Q76" t="n">
-        <v>18</v>
-      </c>
-      <c r="R76" t="inlineStr">
+      <c r="Q77" t="n">
+        <v>19</v>
+      </c>
+      <c r="R77" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U76" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>Rey and White &amp;amp; Co Real Estate are proud to bring to the market this immaculate 4-bedroom, plus maid townhouse in Maple 2, Dubai Hills Estate. This property is in one of the prime locations in the development.
 Property Details:
@@ -9103,97 +9228,97 @@
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
         <is>
           <t>RL-143020</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>6928563997</t>
         </is>
       </c>
-      <c r="C77" s="2" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14647106.html</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H77" t="n">
+      <c r="H78" t="n">
         <v>5800000</v>
       </c>
-      <c r="I77" t="n">
+      <c r="I78" t="n">
         <v>4</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M77" t="inlineStr">
+      <c r="M78" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N77" t="inlineStr">
+      <c r="N78" t="inlineStr">
         <is>
           <t>2987</t>
         </is>
       </c>
-      <c r="O77" t="inlineStr">
+      <c r="O78" t="inlineStr">
         <is>
           <t>Single Row | Vacant | Near Green Belt</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
       </c>
-      <c r="Q77" t="n">
-        <v>19</v>
-      </c>
-      <c r="R77" t="inlineStr">
+      <c r="Q78" t="n">
+        <v>20</v>
+      </c>
+      <c r="R78" t="inlineStr">
         <is>
           <t>Olivia Peat</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U77" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>Olivia from White and Co is delighted to bring to market this stunning, single row 4 bedroom + maids townhouse in Maple 2, Dubai Hills Estate. This beautifully maintained corner unit offers a bright, spacious layout and is ideal for families seeking both comfort and convenience. The property features a modern, open-plan living and dining area, a contemporary kitchen with sleek cabinetry, and four generously sized bedrooms with built-in wardrobes.
 Property details are as follows:
@@ -9211,97 +9336,97 @@
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
         <is>
           <t>RL-143602</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>6991660577</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14754224.html</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H78" t="n">
+      <c r="H79" t="n">
         <v>5350000</v>
       </c>
-      <c r="I78" t="n">
+      <c r="I79" t="n">
         <v>3</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="J79" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
+      <c r="K79" t="inlineStr">
         <is>
           <t>Type 2M</t>
         </is>
       </c>
-      <c r="M78" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>2277</t>
         </is>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="N79" t="inlineStr">
         <is>
           <t>2182</t>
         </is>
       </c>
-      <c r="O78" t="inlineStr">
+      <c r="O79" t="inlineStr">
         <is>
           <t>Exclusive | Park Backing | Great Location</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>2025-07-16</t>
         </is>
       </c>
-      <c r="Q78" t="n">
-        <v>5</v>
-      </c>
-      <c r="R78" t="inlineStr">
+      <c r="Q79" t="n">
+        <v>6</v>
+      </c>
+      <c r="R79" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U78" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>Rey and White and Co Real Estate are proud to bring this immaculate 3-bedroom, plus maid townhouse to the Maple 3, Dubai Hills Estate market. This property is in one of the prime locations in the development.
 Property Details:
@@ -9335,97 +9460,97 @@
         </is>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
         <is>
           <t>RL-144533</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>6925793540</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14701616.html</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H79" t="n">
+      <c r="H80" t="n">
         <v>5200000</v>
       </c>
-      <c r="I79" t="n">
+      <c r="I80" t="n">
         <v>3</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="J80" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="K80" t="inlineStr">
         <is>
           <t>Type 2M</t>
         </is>
       </c>
-      <c r="M79" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>2251</t>
         </is>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="N80" t="inlineStr">
         <is>
           <t>2093</t>
         </is>
       </c>
-      <c r="O79" t="inlineStr">
+      <c r="O80" t="inlineStr">
         <is>
           <t>Greenbelt | Near Pool and park | Call Rey</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
       </c>
-      <c r="Q79" t="n">
-        <v>12</v>
-      </c>
-      <c r="R79" t="inlineStr">
+      <c r="Q80" t="n">
+        <v>13</v>
+      </c>
+      <c r="R80" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U79" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>Rey and White and Co Real Estate are proud to bring this immaculate 3-bedroom, plus maid townhouse to the Maple 1, Dubai Hills Estate market. This property is vacant now in one of the prime locations in the development.
 Pictures for illustration purposes only
@@ -9461,97 +9586,97 @@
         </is>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
         <is>
           <t>RL-144534</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>6991660821</t>
         </is>
       </c>
-      <c r="C80" s="2" t="inlineStr">
+      <c r="C81" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14701755.html</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H80" t="n">
+      <c r="H81" t="n">
         <v>5950000</v>
       </c>
-      <c r="I80" t="n">
+      <c r="I81" t="n">
         <v>4</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M80" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="N81" t="inlineStr">
         <is>
           <t>3500</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>Exclusive | Park Backing | 3.5K sqft plot</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
       </c>
-      <c r="Q80" t="n">
-        <v>12</v>
-      </c>
-      <c r="R80" t="inlineStr">
+      <c r="Q81" t="n">
+        <v>13</v>
+      </c>
+      <c r="R81" t="inlineStr">
         <is>
           <t>Resham Sadhwani</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>White &amp; Co Real Estate</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>Rey and White and Co Real Estate are proud to bring this immaculate 4-bedroom, plus maid townhouse to the Maple 3, Dubai Hills Estate market. This property is backing onto a park in one of the prime locations in the development.  
 PICTURES ARE FOR ILLUSTRATION PURPOSES
@@ -9586,116 +9711,20 @@
         </is>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>RL0040472</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>6928565661</t>
-        </is>
-      </c>
-      <c r="C81" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14639954.html</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Maple at Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Maple 2</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>5500000</v>
-      </c>
-      <c r="I81" t="n">
-        <v>4</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>Townhouse</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>Type 3M</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>2170</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
-        <is>
-          <t>Vacant | Ready to Move | Near Green Belt</t>
-        </is>
-      </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>2025-07-01</t>
-        </is>
-      </c>
-      <c r="Q81" t="n">
-        <v>20</v>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>Nidha Baig</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>ENGEL &amp; VÖLKERS Dubai</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>&lt;div&gt;Engel &amp;amp; Völkers proudly presents this spacious 4-bedroom villa located in Maple 2, Dubai Hills Estate. This vacant and ready-to-move-in property is ideally positioned close to the green belt, offering a serene and family-friendly living environment.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Property Highlights:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-4 Bedrooms&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Vacant &amp;amp; ready to move in&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Close to green belt&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Landscaped garden&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Spacious open-plan living &amp;amp; dining&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Covered parking for 2 cars&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Quiet location within the community&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Community Overview:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Maple 2 is part of the highly sought-after Dubai Hills Estate by Emaar. This gated community offers lush green spaces, scenic walkways, and family-friendly amenities. Residents enjoy access to top-tier facilities such as parks, swimming pools, basketball courts, and a community centre. Dubai Hills Estate also features a championship golf course, Dubai Hills Mall, and is strategically located with easy access to Downtown Dubai, Al Khail Road, and major business hubs.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;This villa presents the perfect opportunity for families seeking comfort, convenience, and lifestyle within one of Dubai’s premier communities.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Engel &amp;amp; Voelkers is one of the world’s leading service companies specializing in the brokerage of residential and commercial properties, yachts and aviation, with 800 offices in over 30 countries.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Contact Engel &amp;amp; Voelkers, a global leader in real estate brokerage, today for further information.&lt;br/&gt;&lt;/div&gt;</t>
-        </is>
-      </c>
-    </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>RNP-S-2512</t>
+          <t>RL0040472</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>6991601407</t>
+          <t>6928565661</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14379176.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14639954.html</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -9710,19 +9739,19 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Maple 3</t>
+          <t>Maple 2</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>6100000</v>
+        <v>5500000</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -9731,12 +9760,12 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Type 2M</t>
+          <t>Type 3M</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2277</t>
+          <t>2170</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -9746,25 +9775,25 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>Single Row |3BR + Maid + Study | High ROI</t>
+          <t>Vacant | Ready to Move | Near Green Belt</t>
         </is>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>2025-05-28</t>
+          <t>2025-07-01</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>Nitin Chopra</t>
+          <t>Nidha Baig</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Range International</t>
+          <t>ENGEL &amp; VÖLKERS Dubai</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
@@ -9774,101 +9803,197 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Offered by Range International Property Investments &lt;strong&gt;3-Bedroom Villa in Maple III, Dubai Hills Estate &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;&lt;br&gt;&lt;p&gt;We are pleased to present this &lt;strong&gt;stunning 3-bedroom villa&lt;/strong&gt; for &lt;strong&gt;sale&lt;/strong&gt; in the highly sought-after &lt;strong&gt;Maple III&lt;/strong&gt; community, nestled within the vibrant &lt;strong&gt;Dubai Hills Estate&lt;/strong&gt;.&lt;/p&gt;&lt;br&gt;&lt;p&gt;&lt;strong&gt;Maple&lt;/strong&gt; is a modern townhouse development set amidst tranquil, tree-lined avenues and green walkways, offering peaceful living just minutes from the heart of Dubai. It’s part of one of the city’s most centrally located and ambitious master communities—perfect for families or investors seeking long-term value and growth.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Property Highlights:&lt;/p&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;3 Bedrooms&lt;/li&gt;&lt;li&gt;Maid’s Room + Study&lt;/li&gt;&lt;li&gt;Contemporary Finishes&lt;/li&gt;&lt;li&gt;Walk-In Wardrobe&lt;/li&gt;&lt;li&gt;2 Balconies&lt;/li&gt;&lt;li&gt;Private Garden&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Community Amenities:&lt;/p&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Children’s Play Area&lt;/li&gt;&lt;li&gt;Swimming Pool&lt;/li&gt;&lt;li&gt;Cycling Tracks&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;li&gt;Pet-Friendly&lt;/li&gt;&lt;li&gt;Private Garden&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;This villa is an ideal family home in one of Dubai’s most sought-after communities. With the Dubai Hills area continuing to develop rapidly, it offers a vibrant, new neighborhood atmosphere and an exceptional opportunity for families looking to invest in a future-ready location.&lt;br/&gt;&lt;br/&gt;Call Us Now For More Info &amp;amp; For Viewing &lt;/p&gt;&lt;br&gt;</t>
+          <t>&lt;div&gt;Engel &amp;amp; Völkers proudly presents this spacious 4-bedroom villa located in Maple 2, Dubai Hills Estate. This vacant and ready-to-move-in property is ideally positioned close to the green belt, offering a serene and family-friendly living environment.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Property Highlights:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-4 Bedrooms&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Vacant &amp;amp; ready to move in&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Close to green belt&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Landscaped garden&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Spacious open-plan living &amp;amp; dining&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Covered parking for 2 cars&lt;br/&gt;&lt;/div&gt;&lt;div&gt;-Quiet location within the community&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Community Overview:&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Maple 2 is part of the highly sought-after Dubai Hills Estate by Emaar. This gated community offers lush green spaces, scenic walkways, and family-friendly amenities. Residents enjoy access to top-tier facilities such as parks, swimming pools, basketball courts, and a community centre. Dubai Hills Estate also features a championship golf course, Dubai Hills Mall, and is strategically located with easy access to Downtown Dubai, Al Khail Road, and major business hubs.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;This villa presents the perfect opportunity for families seeking comfort, convenience, and lifestyle within one of Dubai’s premier communities.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Engel &amp;amp; Voelkers is one of the world’s leading service companies specializing in the brokerage of residential and commercial properties, yachts and aviation, with 800 offices in over 30 countries.&lt;br/&gt;&lt;/div&gt;&lt;div&gt;&lt;br/&gt;&lt;/div&gt;&lt;div&gt;Contact Engel &amp;amp; Voelkers, a global leader in real estate brokerage, today for further information.&lt;br/&gt;&lt;/div&gt;</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
+          <t>RNP-S-2512</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>6991601407</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14379176.html</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Maple at Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Maple 3</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6100000</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Townhouse</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Type 2M</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>2277</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>Single Row |3BR + Maid + Study | High ROI</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>55</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>Nitin Chopra</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Range International</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;&lt;strong&gt;Offered by Range International Property Investments &lt;strong&gt;3-Bedroom Villa in Maple III, Dubai Hills Estate &lt;/strong&gt;&lt;/strong&gt;&lt;/p&gt;&lt;br&gt;&lt;p&gt;We are pleased to present this &lt;strong&gt;stunning 3-bedroom villa&lt;/strong&gt; for &lt;strong&gt;sale&lt;/strong&gt; in the highly sought-after &lt;strong&gt;Maple III&lt;/strong&gt; community, nestled within the vibrant &lt;strong&gt;Dubai Hills Estate&lt;/strong&gt;.&lt;/p&gt;&lt;br&gt;&lt;p&gt;&lt;strong&gt;Maple&lt;/strong&gt; is a modern townhouse development set amidst tranquil, tree-lined avenues and green walkways, offering peaceful living just minutes from the heart of Dubai. It’s part of one of the city’s most centrally located and ambitious master communities—perfect for families or investors seeking long-term value and growth.&lt;/p&gt;&lt;br&gt;&lt;p&gt;Property Highlights:&lt;/p&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;3 Bedrooms&lt;/li&gt;&lt;li&gt;Maid’s Room + Study&lt;/li&gt;&lt;li&gt;Contemporary Finishes&lt;/li&gt;&lt;li&gt;Walk-In Wardrobe&lt;/li&gt;&lt;li&gt;2 Balconies&lt;/li&gt;&lt;li&gt;Private Garden&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;Community Amenities:&lt;/p&gt;&lt;br&gt;&lt;ul&gt;&lt;li&gt;BBQ Area&lt;/li&gt;&lt;li&gt;Children’s Play Area&lt;/li&gt;&lt;li&gt;Swimming Pool&lt;/li&gt;&lt;li&gt;Cycling Tracks&lt;/li&gt;&lt;li&gt;Covered Parking&lt;/li&gt;&lt;li&gt;Pet-Friendly&lt;/li&gt;&lt;li&gt;Private Garden&lt;/li&gt;&lt;/ul&gt;&lt;p&gt;This villa is an ideal family home in one of Dubai’s most sought-after communities. With the Dubai Hills area continuing to develop rapidly, it offers a vibrant, new neighborhood atmosphere and an exceptional opportunity for families looking to invest in a future-ready location.&lt;br/&gt;&lt;br/&gt;Call Us Now For More Info &amp;amp; For Viewing &lt;/p&gt;&lt;br&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
           <t>SA-S-0520</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>6925792970</t>
         </is>
       </c>
-      <c r="C83" s="2" t="inlineStr">
+      <c r="C84" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14336433.html</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D84" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H83" t="n">
+      <c r="H84" t="n">
         <v>6500000</v>
       </c>
-      <c r="I83" t="n">
+      <c r="I84" t="n">
         <v>4</v>
       </c>
-      <c r="J83" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M83" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>2919</t>
         </is>
       </c>
-      <c r="N83" t="inlineStr">
+      <c r="N84" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O83" t="inlineStr">
+      <c r="O84" t="inlineStr">
         <is>
           <t>Luxurious | 4BR Villa | Ready to Move in</t>
         </is>
       </c>
-      <c r="P83" t="inlineStr">
+      <c r="P84" t="inlineStr">
         <is>
           <t>2025-05-23</t>
         </is>
       </c>
-      <c r="Q83" t="n">
-        <v>59</v>
-      </c>
-      <c r="R83" t="inlineStr">
+      <c r="Q84" t="n">
+        <v>60</v>
+      </c>
+      <c r="R84" t="inlineStr">
         <is>
           <t>Saif Ali</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>Candour Real Estate Broker</t>
         </is>
       </c>
-      <c r="T83" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U83" t="inlineStr">
+      <c r="U84" t="inlineStr">
         <is>
           <t>Candour Real Estate Broker LLC is Pleased to Present this Luxurious 4 Bedroom Villa for Sale in DE Maple 1.
 Welcome to your dream home in the serene and upscale community of De Maple. This stunning 4-bedroom villa offers the perfect blend of modern luxury and timeless design, ideal for families seeking comfort, space, and a premium lifestyle.
@@ -9891,97 +10016,97 @@
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
         <is>
           <t>SA-S-5019</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>6991622147</t>
         </is>
       </c>
-      <c r="C84" s="2" t="inlineStr">
+      <c r="C85" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14327042.html</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H84" t="n">
+      <c r="H85" t="n">
         <v>6200000</v>
       </c>
-      <c r="I84" t="n">
+      <c r="I85" t="n">
         <v>4</v>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="K85" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M84" t="inlineStr">
+      <c r="M85" t="inlineStr">
         <is>
           <t>3065</t>
         </is>
       </c>
-      <c r="N84" t="inlineStr">
+      <c r="N85" t="inlineStr">
         <is>
           <t>3065</t>
         </is>
       </c>
-      <c r="O84" t="inlineStr">
+      <c r="O85" t="inlineStr">
         <is>
           <t xml:space="preserve">Upgraded 4BR Villa |Single Row | Ready to move in </t>
         </is>
       </c>
-      <c r="P84" t="inlineStr">
+      <c r="P85" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
       </c>
-      <c r="Q84" t="n">
-        <v>60</v>
-      </c>
-      <c r="R84" t="inlineStr">
+      <c r="Q85" t="n">
+        <v>61</v>
+      </c>
+      <c r="R85" t="inlineStr">
         <is>
           <t>Saif Ali</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>Candour Real Estate Broker</t>
         </is>
       </c>
-      <c r="T84" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U84" t="inlineStr">
+      <c r="U85" t="inlineStr">
         <is>
           <t>Candour Real Estate Broker LLC is Thrilled to present this luxurious 4BR Villa for Sale in DE Maple III.
 This exquisite 4-bedroom villa, located in the prestigious Maple III community at Dubai Hills Estate, offers an unparalleled blend of luxury, comfort, and modern living. Designed with spaciousness and elegance in mind, the villa features a bright, open-plan layout with high ceilings and large windows, allowing for an abundance of natural light throughout.
@@ -10005,97 +10130,97 @@
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
         <is>
           <t>SD-S-4BV-82</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>6991626295</t>
         </is>
       </c>
-      <c r="C85" s="2" t="inlineStr">
+      <c r="C86" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14658183.html</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D86" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H85" t="n">
+      <c r="H86" t="n">
         <v>5799000</v>
       </c>
-      <c r="I85" t="n">
+      <c r="I86" t="n">
         <v>4</v>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
+      <c r="K86" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M85" t="inlineStr">
+      <c r="M86" t="inlineStr">
         <is>
           <t>2500</t>
         </is>
       </c>
-      <c r="N85" t="inlineStr">
+      <c r="N86" t="inlineStr">
         <is>
           <t>3014</t>
         </is>
       </c>
-      <c r="O85" t="inlineStr">
+      <c r="O86" t="inlineStr">
         <is>
           <t>Exclusive | 4 BR Corner 2E | Single Row</t>
         </is>
       </c>
-      <c r="P85" t="inlineStr">
+      <c r="P86" t="inlineStr">
         <is>
           <t>2025-07-03</t>
         </is>
       </c>
-      <c r="Q85" t="n">
-        <v>18</v>
-      </c>
-      <c r="R85" t="inlineStr">
+      <c r="Q86" t="n">
+        <v>19</v>
+      </c>
+      <c r="R86" t="inlineStr">
         <is>
           <t>Saddique Dada</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>SANDCASTLE PROPERTIES LLC</t>
         </is>
       </c>
-      <c r="T85" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U85" t="inlineStr">
+      <c r="U86" t="inlineStr">
         <is>
           <t>Sandcastle Property is delighted to present this beautiful 4 bedroom + maid&amp;#39;s villa for sale in Maple III.
 Property Details :
@@ -10114,97 +10239,97 @@
         </is>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
         <is>
           <t>SL-DEMAPLE-MAJD</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>6928564221</t>
         </is>
       </c>
-      <c r="C86" s="2" t="inlineStr">
+      <c r="C87" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14720402.html</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H86" t="n">
+      <c r="H87" t="n">
         <v>5900000</v>
       </c>
-      <c r="I86" t="n">
+      <c r="I87" t="n">
         <v>4</v>
       </c>
-      <c r="J86" t="inlineStr">
+      <c r="J87" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
+      <c r="K87" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M86" t="inlineStr">
+      <c r="M87" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N86" t="inlineStr">
+      <c r="N87" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O86" t="inlineStr">
+      <c r="O87" t="inlineStr">
         <is>
           <t>4BR plus Maid | Single Row | Prime Location</t>
         </is>
       </c>
-      <c r="P86" t="inlineStr">
+      <c r="P87" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
       </c>
-      <c r="Q86" t="n">
-        <v>10</v>
-      </c>
-      <c r="R86" t="inlineStr">
+      <c r="Q87" t="n">
+        <v>11</v>
+      </c>
+      <c r="R87" t="inlineStr">
         <is>
           <t>Dominic Yates</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>Royce International Realty</t>
         </is>
       </c>
-      <c r="T86" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U86" t="inlineStr">
+      <c r="U87" t="inlineStr">
         <is>
           <t>Royce Properties LLC is delighted to introduce this stunning four-bedroom villa located in the prestigious Dubai Hills - Maple 2. 
 Property Details:
@@ -10230,97 +10355,97 @@
         </is>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
         <is>
           <t>SP-DR-09-01</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>6928564529</t>
         </is>
       </c>
-      <c r="C87" s="2" t="inlineStr">
+      <c r="C88" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14756030.html</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="H87" t="n">
+      <c r="H88" t="n">
         <v>6300000</v>
       </c>
-      <c r="I87" t="n">
+      <c r="I88" t="n">
         <v>5</v>
       </c>
-      <c r="J87" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M87" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N87" t="inlineStr">
+      <c r="N88" t="inlineStr">
         <is>
           <t>3267</t>
         </is>
       </c>
-      <c r="O87" t="inlineStr">
+      <c r="O88" t="inlineStr">
         <is>
           <t>Spacious 5 BR Townhouse in Maple 2, Dubai Hills</t>
         </is>
       </c>
-      <c r="P87" t="inlineStr">
+      <c r="P88" t="inlineStr">
         <is>
           <t>2025-07-16</t>
         </is>
       </c>
-      <c r="Q87" t="n">
-        <v>5</v>
-      </c>
-      <c r="R87" t="inlineStr">
+      <c r="Q88" t="n">
+        <v>6</v>
+      </c>
+      <c r="R88" t="inlineStr">
         <is>
           <t>Darsh Jain</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>SLASH PROPERTIES L.L.C</t>
         </is>
       </c>
-      <c r="T87" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U87" t="inlineStr">
+      <c r="U88" t="inlineStr">
         <is>
           <t>Slash Properties is proud to present this stunning *5-bedroom villa* in the prestigious *Maple community at Dubai Hills Estate. Situated on a **large plot of 3,267 sq ft, this home features one of the **best layouts in the community (Type 3E)* and is designed for modern family living with luxury and comfort at its core.
 *Property Highlights:*
@@ -10353,97 +10478,97 @@
         </is>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
         <is>
           <t>TH11289-1</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>6928565265</t>
         </is>
       </c>
-      <c r="C88" s="2" t="inlineStr">
+      <c r="C89" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14100268.html</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H88" t="n">
+      <c r="H89" t="n">
         <v>5500000</v>
       </c>
-      <c r="I88" t="n">
+      <c r="I89" t="n">
         <v>4</v>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M88" t="inlineStr">
+      <c r="M89" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N88" t="inlineStr">
+      <c r="N89" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O88" t="inlineStr">
+      <c r="O89" t="inlineStr">
         <is>
           <t>| Camel track | Motivated Seller | Exclusive</t>
         </is>
       </c>
-      <c r="P88" t="inlineStr">
+      <c r="P89" t="inlineStr">
         <is>
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="Q88" t="n">
-        <v>87</v>
-      </c>
-      <c r="R88" t="inlineStr">
+      <c r="Q89" t="n">
+        <v>88</v>
+      </c>
+      <c r="R89" t="inlineStr">
         <is>
           <t>Theo Syme Dey</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T88" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U88" t="inlineStr">
+      <c r="U89" t="inlineStr">
         <is>
           <t>Phoenix Homes is delighted to present this 4-bedroom end-unit townhouse with maid’s room, located in the highly sought-after Maple 2, Dubai Hills Estate. 
 - Immaculately Maintained
@@ -10460,97 +10585,97 @@
         </is>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
         <is>
           <t>TH11321</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>6925793759</t>
         </is>
       </c>
-      <c r="C89" s="2" t="inlineStr">
+      <c r="C90" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14141746.html</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H89" t="n">
+      <c r="H90" t="n">
         <v>5300000</v>
       </c>
-      <c r="I89" t="n">
+      <c r="I90" t="n">
         <v>4</v>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>Type 3M</t>
         </is>
       </c>
-      <c r="M89" t="inlineStr">
+      <c r="M90" t="inlineStr">
         <is>
           <t>2406</t>
         </is>
       </c>
-      <c r="N89" t="inlineStr">
+      <c r="N90" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O90" t="inlineStr">
         <is>
           <t>Park | 3M | Exclusive | Multiple options</t>
         </is>
       </c>
-      <c r="P89" t="inlineStr">
+      <c r="P90" t="inlineStr">
         <is>
           <t>2025-04-30</t>
         </is>
       </c>
-      <c r="Q89" t="n">
-        <v>82</v>
-      </c>
-      <c r="R89" t="inlineStr">
+      <c r="Q90" t="n">
+        <v>83</v>
+      </c>
+      <c r="R90" t="inlineStr">
         <is>
           <t>Theo Syme Dey</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T89" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U89" t="inlineStr">
+      <c r="U90" t="inlineStr">
         <is>
           <t>Phoenix Homes is delighted to present this 4-bedroom townhouse with maid’s room, located in the highly sought-after Maple 1, Dubai Hills Estate.
 - Immaculately Maintained
@@ -10566,97 +10691,97 @@
         </is>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
         <is>
           <t>TH11351</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B91" t="inlineStr">
         <is>
           <t>6925793063</t>
         </is>
       </c>
-      <c r="C90" s="2" t="inlineStr">
+      <c r="C91" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14212391.html</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D91" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H90" t="n">
+      <c r="H91" t="n">
         <v>6800000</v>
       </c>
-      <c r="I90" t="n">
+      <c r="I91" t="n">
         <v>4</v>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M90" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N90" t="inlineStr">
+      <c r="N91" t="inlineStr">
         <is>
           <t>3060</t>
         </is>
       </c>
-      <c r="O90" t="inlineStr">
+      <c r="O91" t="inlineStr">
         <is>
           <t>Exclusive | Renovated | Corner | VOT | Green-belt</t>
         </is>
       </c>
-      <c r="P90" t="inlineStr">
+      <c r="P91" t="inlineStr">
         <is>
           <t>2025-05-08</t>
         </is>
       </c>
-      <c r="Q90" t="n">
-        <v>74</v>
-      </c>
-      <c r="R90" t="inlineStr">
+      <c r="Q91" t="n">
+        <v>75</v>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
           <t>Theo Syme Dey</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T90" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U90" t="inlineStr">
+      <c r="U91" t="inlineStr">
         <is>
           <t>Theo from Phoenix Homes is proud to present this one-of-a-kind, architecturally curated townhouse in Maple 1, Dubai Hills Estate.
 Welcome to a truly unique and tastefully designed home, nestled within the lush green enclaves of Dubai’s most sought-after family community.
@@ -10669,97 +10794,97 @@
         </is>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>TH11407</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>6928566437</t>
         </is>
       </c>
-      <c r="C91" s="2" t="inlineStr">
+      <c r="C92" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14303384.html</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H91" t="n">
+      <c r="H92" t="n">
         <v>5600000</v>
       </c>
-      <c r="I91" t="n">
+      <c r="I92" t="n">
         <v>4</v>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M91" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N91" t="inlineStr">
+      <c r="N92" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O91" t="inlineStr">
+      <c r="O92" t="inlineStr">
         <is>
           <t>Vacant in August | Single Row | Motivated seller</t>
         </is>
       </c>
-      <c r="P91" t="inlineStr">
+      <c r="P92" t="inlineStr">
         <is>
           <t>2025-05-19</t>
         </is>
       </c>
-      <c r="Q91" t="n">
-        <v>63</v>
-      </c>
-      <c r="R91" t="inlineStr">
+      <c r="Q92" t="n">
+        <v>64</v>
+      </c>
+      <c r="R92" t="inlineStr">
         <is>
           <t>Catalina Barros</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T91" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U91" t="inlineStr">
+      <c r="U92" t="inlineStr">
         <is>
           <t>Elegant Townhouse | 4 Bedrooms 2E | Private Garden
 Presenting a stunning 4-bedroom townhouse in the sought-after Maple community at Dubai Hills Estate, where modern living meets tranquil surroundings. Spanning an impressive 2400 sq.ft, this home exemplifies contemporary design with ample natural light and premium finishes throughout.
@@ -10778,97 +10903,97 @@
         </is>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>TH20754</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B93" t="inlineStr">
         <is>
           <t>6928563997</t>
         </is>
       </c>
-      <c r="C92" s="2" t="inlineStr">
+      <c r="C93" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14589949.html</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D93" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H92" t="n">
+      <c r="H93" t="n">
         <v>5900000</v>
       </c>
-      <c r="I92" t="n">
+      <c r="I93" t="n">
         <v>4</v>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="J93" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="K93" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M92" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N92" t="inlineStr">
+      <c r="N93" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O92" t="inlineStr">
+      <c r="O93" t="inlineStr">
         <is>
           <t>Corner Type 2E | Vacant End of June | Single Row</t>
         </is>
       </c>
-      <c r="P92" t="inlineStr">
+      <c r="P93" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="Q92" t="n">
-        <v>26</v>
-      </c>
-      <c r="R92" t="inlineStr">
+      <c r="Q93" t="n">
+        <v>27</v>
+      </c>
+      <c r="R93" t="inlineStr">
         <is>
           <t>Mohammad Meshmesh</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>Harbor Real Estate</t>
         </is>
       </c>
-      <c r="T92" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U92" t="inlineStr">
+      <c r="U93" t="inlineStr">
         <is>
           <t>Harbor Real Estate, the only agency to receive a gold ranking for 7 consecutive years from Dubai Land Department, is delighted to offer you this upgraded 4-bedroom Type 2E villa in the highly desirable Maple, Dubai Hills Estate — a perfect family home offering comfort, privacy, and a prime location.
 Property Highlights:
@@ -10890,97 +11015,97 @@
         </is>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
         <is>
           <t>TH739156-3</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>6928566349</t>
         </is>
       </c>
-      <c r="C93" s="2" t="inlineStr">
+      <c r="C94" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14585387.html</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H93" t="n">
+      <c r="H94" t="n">
         <v>4950000</v>
       </c>
-      <c r="I93" t="n">
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>Type 2M</t>
         </is>
       </c>
-      <c r="M93" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="N93" t="inlineStr">
+      <c r="N94" t="inlineStr">
         <is>
           <t>2180</t>
         </is>
       </c>
-      <c r="O93" t="inlineStr">
+      <c r="O94" t="inlineStr">
         <is>
           <t>Vacant Now | 3 Bedrooms | View Today</t>
         </is>
       </c>
-      <c r="P93" t="inlineStr">
+      <c r="P94" t="inlineStr">
         <is>
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="Q93" t="n">
-        <v>26</v>
-      </c>
-      <c r="R93" t="inlineStr">
+      <c r="Q94" t="n">
+        <v>27</v>
+      </c>
+      <c r="R94" t="inlineStr">
         <is>
           <t>Divine Johannis</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="T93" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U93" t="inlineStr">
+      <c r="U94" t="inlineStr">
         <is>
           <t>Dee &amp;amp; Betterhomes are proud to offer this 3 bedroom (2M) townhouse situated in one of the best locations across the whole of the Maple community.
 - 3 Bedrooms
@@ -10997,97 +11122,97 @@
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
         <is>
           <t>TH742457-4</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B95" t="inlineStr">
         <is>
           <t>6928565205</t>
         </is>
       </c>
-      <c r="C94" s="2" t="inlineStr">
+      <c r="C95" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14721747.html</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H94" t="n">
+      <c r="H95" t="n">
         <v>6200000</v>
       </c>
-      <c r="I94" t="n">
+      <c r="I95" t="n">
         <v>4</v>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M94" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N94" t="inlineStr">
+      <c r="N95" t="inlineStr">
         <is>
           <t>3263</t>
         </is>
       </c>
-      <c r="O94" t="inlineStr">
+      <c r="O95" t="inlineStr">
         <is>
           <t>New to Market | Upgraded | Vacant On Transfer</t>
         </is>
       </c>
-      <c r="P94" t="inlineStr">
+      <c r="P95" t="inlineStr">
         <is>
           <t>2025-07-11</t>
         </is>
       </c>
-      <c r="Q94" t="n">
-        <v>10</v>
-      </c>
-      <c r="R94" t="inlineStr">
+      <c r="Q95" t="n">
+        <v>11</v>
+      </c>
+      <c r="R95" t="inlineStr">
         <is>
           <t>Jonathan Martin Coates</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="T94" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U94" t="inlineStr">
+      <c r="U95" t="inlineStr">
         <is>
           <t>Jon at Betterhomes are proud to bring to market this 4 bedroom + maids Townhouse in Maple 2, Dubai Hills Estate.
 The property features an open living area, a contemporary kitchen and four well appointed bedrooms along with a big maids room.
@@ -11111,97 +11236,97 @@
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
         <is>
           <t>TH744455-1</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B96" t="inlineStr">
         <is>
           <t>6928565541</t>
         </is>
       </c>
-      <c r="C95" s="2" t="inlineStr">
+      <c r="C96" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14705668.html</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H95" t="n">
+      <c r="H96" t="n">
         <v>6250000</v>
       </c>
-      <c r="I95" t="n">
+      <c r="I96" t="n">
         <v>4</v>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M95" t="inlineStr">
+      <c r="M96" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N95" t="inlineStr">
+      <c r="N96" t="inlineStr">
         <is>
           <t>3700</t>
         </is>
       </c>
-      <c r="O95" t="inlineStr">
+      <c r="O96" t="inlineStr">
         <is>
           <t>Exclusive | Vacant On Transfer | Huge Plot</t>
         </is>
       </c>
-      <c r="P95" t="inlineStr">
+      <c r="P96" t="inlineStr">
         <is>
           <t>2025-07-09</t>
         </is>
       </c>
-      <c r="Q95" t="n">
-        <v>12</v>
-      </c>
-      <c r="R95" t="inlineStr">
+      <c r="Q96" t="n">
+        <v>13</v>
+      </c>
+      <c r="R96" t="inlineStr">
         <is>
           <t>Jonathan Martin Coates</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="T95" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U95" t="inlineStr">
+      <c r="U96" t="inlineStr">
         <is>
           <t>Jon at Betterhomes is proud to present this highly sought-after Type 2E townhouse, ideally located in Maple 2, Dubai Hills Estate. Set within one of the most family-friendly communities in Dubai, this well-maintained 4-bedroom + maid’s property offers the perfect balance of space, privacy, and accessibility.
 Key Features:
@@ -11219,97 +11344,97 @@
         </is>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
         <is>
           <t>TH744924</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B97" t="inlineStr">
         <is>
           <t>6925793315</t>
         </is>
       </c>
-      <c r="C96" s="2" t="inlineStr">
+      <c r="C97" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14763147.html</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H96" t="n">
+      <c r="H97" t="n">
         <v>5300000</v>
       </c>
-      <c r="I96" t="n">
+      <c r="I97" t="n">
         <v>4</v>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>Type 3M</t>
         </is>
       </c>
-      <c r="M96" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>2406</t>
         </is>
       </c>
-      <c r="N96" t="inlineStr">
+      <c r="N97" t="inlineStr">
         <is>
           <t>2168</t>
         </is>
       </c>
-      <c r="O96" t="inlineStr">
+      <c r="O97" t="inlineStr">
         <is>
           <t>New To Market | Green Belt | Vacant Now</t>
         </is>
       </c>
-      <c r="P96" t="inlineStr">
+      <c r="P97" t="inlineStr">
         <is>
           <t>2025-07-17</t>
         </is>
       </c>
-      <c r="Q96" t="n">
-        <v>4</v>
-      </c>
-      <c r="R96" t="inlineStr">
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="inlineStr">
         <is>
           <t>Jonathan Martin Coates</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>Betterhomes - Motor City</t>
         </is>
       </c>
-      <c r="T96" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U96" t="inlineStr">
+      <c r="U97" t="inlineStr">
         <is>
           <t>Jon at Betterhomes is proud to present this highly sought-after Type 3M townhouse, ideally located in Maple 1, Dubai Hills Estate. Set within one of the most family-friendly communities in Dubai, this well-maintained 4-bedroom + maid’s property offers the perfect balance of space, privacy, and accessibility.
 Key Features:
@@ -11327,97 +11452,97 @@
         </is>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
         <is>
           <t>TH7607-2</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B98" t="inlineStr">
         <is>
           <t>6991615925</t>
         </is>
       </c>
-      <c r="C97" s="2" t="inlineStr">
+      <c r="C98" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14645946.html</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D98" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H97" t="n">
+      <c r="H98" t="n">
         <v>6500000</v>
       </c>
-      <c r="I97" t="n">
+      <c r="I98" t="n">
         <v>5</v>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="J98" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="K98" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M97" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>2768</t>
         </is>
       </c>
-      <c r="N97" t="inlineStr">
+      <c r="N98" t="inlineStr">
         <is>
           <t>3283</t>
         </is>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="O98" t="inlineStr">
         <is>
           <t>Exclusive | Park Backing | Vacant on Transfer</t>
         </is>
       </c>
-      <c r="P97" t="inlineStr">
+      <c r="P98" t="inlineStr">
         <is>
           <t>2025-07-02</t>
         </is>
       </c>
-      <c r="Q97" t="n">
-        <v>19</v>
-      </c>
-      <c r="R97" t="inlineStr">
+      <c r="Q98" t="n">
+        <v>20</v>
+      </c>
+      <c r="R98" t="inlineStr">
         <is>
           <t>Liam Moore</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>Irwin Real Estate L.L.C</t>
         </is>
       </c>
-      <c r="T97" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U97" t="inlineStr">
+      <c r="U98" t="inlineStr">
         <is>
           <t>Irwin Real Estate is delighted to present this beautifully situated 5-bedroom villa + maid&amp;#39;s in the most sought after Dubai Hills community.
 5 Bedroom + Maid&amp;#39;s
@@ -11433,97 +11558,97 @@
         </is>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
         <is>
           <t>UQP-17333</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>6925792355</t>
         </is>
       </c>
-      <c r="C98" s="2" t="inlineStr">
+      <c r="C99" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-13641133.html</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D99" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H98" t="n">
+      <c r="H99" t="n">
         <v>6000000</v>
       </c>
-      <c r="I98" t="n">
+      <c r="I99" t="n">
         <v>5</v>
       </c>
-      <c r="J98" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M98" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N98" t="inlineStr">
+      <c r="N99" t="inlineStr">
         <is>
           <t>3270</t>
         </is>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="O99" t="inlineStr">
         <is>
           <t>Single Row | 3E Type | Vacant soon</t>
         </is>
       </c>
-      <c r="P98" t="inlineStr">
+      <c r="P99" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
-      <c r="Q98" t="n">
-        <v>145</v>
-      </c>
-      <c r="R98" t="inlineStr">
+      <c r="Q99" t="n">
+        <v>146</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>Oliver Spencer Mollett</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>Unique Properties - Secondary</t>
         </is>
       </c>
-      <c r="T98" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U98" t="inlineStr">
+      <c r="U99" t="inlineStr">
         <is>
           <t>Unique Properties is excited to offer this fully furnished five-bedroom townhouse for sale in Maple, Dubai Hills Estate.
 Key Features include:
@@ -11539,97 +11664,97 @@
         </is>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
         <is>
           <t>VI11305</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B100" t="inlineStr">
         <is>
           <t>6925794221</t>
         </is>
       </c>
-      <c r="C99" s="2" t="inlineStr">
+      <c r="C100" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14121657.html</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D100" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H99" t="n">
+      <c r="H100" t="n">
         <v>7200000</v>
       </c>
-      <c r="I99" t="n">
+      <c r="I100" t="n">
         <v>5</v>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="J100" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="K100" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M99" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N99" t="inlineStr">
+      <c r="N100" t="inlineStr">
         <is>
           <t>3600</t>
         </is>
       </c>
-      <c r="O99" t="inlineStr">
+      <c r="O100" t="inlineStr">
         <is>
           <t>One-of-a-Kind Corner Unit | Fully Extended | Exclusive | 3,600 Sqft Plot</t>
         </is>
       </c>
-      <c r="P99" t="inlineStr">
+      <c r="P100" t="inlineStr">
         <is>
           <t>2025-04-28</t>
         </is>
       </c>
-      <c r="Q99" t="n">
-        <v>84</v>
-      </c>
-      <c r="R99" t="inlineStr">
+      <c r="Q100" t="n">
+        <v>85</v>
+      </c>
+      <c r="R100" t="inlineStr">
         <is>
           <t>Theo Syme Dey</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>Phoenix Homes</t>
         </is>
       </c>
-      <c r="T99" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U99" t="inlineStr">
+      <c r="U100" t="inlineStr">
         <is>
           <t>One-of-a-Kind Corner Unit | Fully Extended with Approvals | 3,600 Sqft Plot
 Introducing a truly unique opportunity within the Maple community of the world-renowned Dubai Hills Estate.
@@ -11644,97 +11769,97 @@
         </is>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
         <is>
           <t>W-0307J9</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B101" t="inlineStr">
         <is>
           <t>6928564421</t>
         </is>
       </c>
-      <c r="C100" s="2" t="inlineStr">
+      <c r="C101" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14362691.html</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H100" t="n">
+      <c r="H101" t="n">
         <v>5200000</v>
       </c>
-      <c r="I100" t="n">
+      <c r="I101" t="n">
         <v>4</v>
       </c>
-      <c r="J100" t="inlineStr">
+      <c r="J101" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="K101" t="inlineStr">
         <is>
           <t>Type 3M</t>
         </is>
       </c>
-      <c r="M100" t="inlineStr">
+      <c r="M101" t="inlineStr">
         <is>
           <t>2156</t>
         </is>
       </c>
-      <c r="N100" t="inlineStr">
+      <c r="N101" t="inlineStr">
         <is>
           <t>2156</t>
         </is>
       </c>
-      <c r="O100" t="inlineStr">
+      <c r="O101" t="inlineStr">
         <is>
           <t>Vacant | Greenbelt | Multiple options</t>
         </is>
       </c>
-      <c r="P100" t="inlineStr">
+      <c r="P101" t="inlineStr">
         <is>
           <t>2025-05-26</t>
         </is>
       </c>
-      <c r="Q100" t="n">
-        <v>56</v>
-      </c>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>NATALIE WHITE</t>
-        </is>
-      </c>
-      <c r="S100" t="inlineStr">
+      <c r="Q101" t="n">
+        <v>57</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>Natalie White</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
         <is>
           <t>ENGEL &amp; VÖLKERS Dubai - S4</t>
         </is>
       </c>
-      <c r="T100" t="inlineStr">
+      <c r="T101" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U100" t="inlineStr">
+      <c r="U101" t="inlineStr">
         <is>
           <t>Engel &amp;amp; Volekers is proud to present this 4 bedroom plus maid in Maple, Dubai Hills Estate.
 Property details :
@@ -11754,97 +11879,97 @@
         </is>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
         <is>
           <t>XO-15843</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>6928564109</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C102" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14280227.html</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H101" t="n">
+      <c r="H102" t="n">
         <v>6000000</v>
       </c>
-      <c r="I101" t="n">
+      <c r="I102" t="n">
         <v>4</v>
       </c>
-      <c r="J101" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M101" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>2462</t>
         </is>
       </c>
-      <c r="N101" t="inlineStr">
+      <c r="N102" t="inlineStr">
         <is>
           <t>3698</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr">
+      <c r="O102" t="inlineStr">
         <is>
           <t>Corner Plot | VOT | Single Row | Exclusive</t>
         </is>
       </c>
-      <c r="P101" t="inlineStr">
+      <c r="P102" t="inlineStr">
         <is>
           <t>2025-05-16</t>
         </is>
       </c>
-      <c r="Q101" t="n">
-        <v>66</v>
-      </c>
-      <c r="R101" t="inlineStr">
+      <c r="Q102" t="n">
+        <v>67</v>
+      </c>
+      <c r="R102" t="inlineStr">
         <is>
           <t>Harry Howlett</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="S102" t="inlineStr">
         <is>
           <t>XO Property</t>
         </is>
       </c>
-      <c r="T101" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U101" t="inlineStr">
+      <c r="U102" t="inlineStr">
         <is>
           <t>- Type 2E
 - 4 Bedrooms
@@ -11863,97 +11988,97 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
         <is>
           <t>XO-16289</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B103" t="inlineStr">
         <is>
           <t>6928566349</t>
         </is>
       </c>
-      <c r="C102" s="2" t="inlineStr">
+      <c r="C103" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14330194.html</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H102" t="n">
+      <c r="H103" t="n">
         <v>4950000</v>
       </c>
-      <c r="I102" t="n">
+      <c r="I103" t="n">
         <v>3</v>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="J103" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="K103" t="inlineStr">
         <is>
           <t>Type 2M</t>
         </is>
       </c>
-      <c r="M102" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>2250</t>
         </is>
       </c>
-      <c r="N102" t="inlineStr">
+      <c r="N103" t="inlineStr">
         <is>
           <t>2077</t>
         </is>
       </c>
-      <c r="O102" t="inlineStr">
+      <c r="O103" t="inlineStr">
         <is>
           <t>Single Row | Notice Served | Genuine Unit</t>
         </is>
       </c>
-      <c r="P102" t="inlineStr">
+      <c r="P103" t="inlineStr">
         <is>
           <t>2025-05-22</t>
         </is>
       </c>
-      <c r="Q102" t="n">
-        <v>60</v>
-      </c>
-      <c r="R102" t="inlineStr">
+      <c r="Q103" t="n">
+        <v>61</v>
+      </c>
+      <c r="R103" t="inlineStr">
         <is>
           <t>Kayleigh Lees</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>XO Property</t>
         </is>
       </c>
-      <c r="T102" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U102" t="inlineStr">
+      <c r="U103" t="inlineStr">
         <is>
           <t>XO Property are proud to present this three bedroom townhouse in Maple 2, Dubai Hills. This is a striking residential community that offers a blend of modern living and natural beauty. The three-bedroom townhouse in this development is particularly appealing for families or individuals seeking spacious living arrangements with contemporary amenities.
 The three-bedroom townhouse typically features an open-plan design that maximizes space and natural light. The living areas are generous, allowing for comfortable family gatherings.
@@ -11978,97 +12103,97 @@
         </is>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
         <is>
           <t>ZL-S-16072025</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B104" t="inlineStr">
         <is>
           <t>6991620439</t>
         </is>
       </c>
-      <c r="C103" s="2" t="inlineStr">
+      <c r="C104" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14756842.html</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H103" t="n">
+      <c r="H104" t="n">
         <v>5500000</v>
       </c>
-      <c r="I103" t="n">
+      <c r="I104" t="n">
         <v>3</v>
       </c>
-      <c r="J103" t="inlineStr">
+      <c r="J104" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="K104" t="inlineStr">
         <is>
           <t>Type 2M</t>
         </is>
       </c>
-      <c r="M103" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>2277</t>
         </is>
       </c>
-      <c r="N103" t="inlineStr">
+      <c r="N104" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="O103" t="inlineStr">
+      <c r="O104" t="inlineStr">
         <is>
           <t xml:space="preserve">SINGLE ROW I LUXURIOUS 3BR VILLA </t>
         </is>
       </c>
-      <c r="P103" t="inlineStr">
+      <c r="P104" t="inlineStr">
         <is>
           <t>2025-07-16</t>
         </is>
       </c>
-      <c r="Q103" t="n">
-        <v>5</v>
-      </c>
-      <c r="R103" t="inlineStr">
+      <c r="Q104" t="n">
+        <v>6</v>
+      </c>
+      <c r="R104" t="inlineStr">
         <is>
           <t>Bingchuan Fu</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>Arctic Real Estate</t>
         </is>
       </c>
-      <c r="T103" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U103" t="inlineStr">
+      <c r="U104" t="inlineStr">
         <is>
           <t>Arctic Real Estate pleased to offer you a 
 Three Bedrooms in Maple 3 Dubai Hills is for Sale!
@@ -12084,97 +12209,97 @@
         </is>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1" t="inlineStr">
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
         <is>
           <t>bless-grace-real--13174701</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B105" t="inlineStr">
         <is>
           <t>6991657405</t>
         </is>
       </c>
-      <c r="C104" s="2" t="inlineStr">
+      <c r="C105" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-13742059.html</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D105" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>Maple 3</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H104" t="n">
+      <c r="H105" t="n">
         <v>6200000</v>
       </c>
-      <c r="I104" t="n">
+      <c r="I105" t="n">
         <v>4</v>
       </c>
-      <c r="J104" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>Type 2E</t>
         </is>
       </c>
-      <c r="M104" t="inlineStr">
+      <c r="M105" t="inlineStr">
         <is>
           <t>3369</t>
         </is>
       </c>
-      <c r="N104" t="inlineStr">
+      <c r="N105" t="inlineStr">
         <is>
           <t>3369</t>
         </is>
       </c>
-      <c r="O104" t="inlineStr">
+      <c r="O105" t="inlineStr">
         <is>
           <t>Big plot| Close to Park| Good location</t>
         </is>
       </c>
-      <c r="P104" t="inlineStr">
+      <c r="P105" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
-      <c r="Q104" t="n">
-        <v>133</v>
-      </c>
-      <c r="R104" t="inlineStr">
+      <c r="Q105" t="n">
+        <v>134</v>
+      </c>
+      <c r="R105" t="inlineStr">
         <is>
           <t>Wenya Wang</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>BLESS GRACE REAL ESTATE L.L.C</t>
         </is>
       </c>
-      <c r="T104" t="inlineStr">
+      <c r="T105" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U104" t="inlineStr">
+      <c r="U105" t="inlineStr">
         <is>
           <t>Bless Grace Real Estate brings you this 4 Bedroom villa is located in Maple 3, Dubai Hills Estate..
 Description:
@@ -12198,97 +12323,97 @@
         </is>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
         <is>
           <t>pinbest-real-esta-13208745</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B106" t="inlineStr">
         <is>
           <t>6928564733</t>
         </is>
       </c>
-      <c r="C105" s="2" t="inlineStr">
+      <c r="C106" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-13759769.html</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>Maple 2</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H105" t="n">
+      <c r="H106" t="n">
         <v>6600000</v>
       </c>
-      <c r="I105" t="n">
+      <c r="I106" t="n">
         <v>5</v>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="J106" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
+      <c r="K106" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M105" t="inlineStr">
+      <c r="M106" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N105" t="inlineStr">
+      <c r="N106" t="inlineStr">
         <is>
           <t>3200</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr">
+      <c r="O106" t="inlineStr">
         <is>
           <t>5 BR + Maids | Prime Location | Distinctive Layout</t>
         </is>
       </c>
-      <c r="P105" t="inlineStr">
+      <c r="P106" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
-      <c r="Q105" t="n">
-        <v>131</v>
-      </c>
-      <c r="R105" t="inlineStr">
+      <c r="Q106" t="n">
+        <v>132</v>
+      </c>
+      <c r="R106" t="inlineStr">
         <is>
           <t>Yuanxing Hu</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>PINBEST REAL ESTATE L.L.C</t>
         </is>
       </c>
-      <c r="T105" t="inlineStr">
+      <c r="T106" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U105" t="inlineStr">
+      <c r="U106" t="inlineStr">
         <is>
           <t xml:space="preserve">Luxury 5-Bedroom Villa in Maple 2, Dubai Hills Estate – AED 6,600,000
 PinBest Real Estate is pleased to offer this stunning 5-bedroom villa in Maple 2, the highly sought-after gated community in Dubai Hills Estate. This villa combines modern luxury with family-friendly living in a tranquil environment, while offering easy access to key areas like Downtown Dubai, Business Bay, and major highways.
@@ -12328,97 +12453,97 @@
         </is>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
         <is>
           <t>yourdealerrealestate-11723740</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>6925793072</t>
         </is>
       </c>
-      <c r="C106" s="2" t="inlineStr">
+      <c r="C107" s="2" t="inlineStr">
         <is>
           <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-12999871.html</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H106" t="n">
+      <c r="H107" t="n">
         <v>6100000</v>
       </c>
-      <c r="I106" t="n">
+      <c r="I107" t="n">
         <v>5</v>
       </c>
-      <c r="J106" t="inlineStr">
+      <c r="J107" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
+      <c r="K107" t="inlineStr">
         <is>
           <t>Type 3E</t>
         </is>
       </c>
-      <c r="M106" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>2734</t>
         </is>
       </c>
-      <c r="N106" t="inlineStr">
+      <c r="N107" t="inlineStr">
         <is>
           <t>3100</t>
         </is>
       </c>
-      <c r="O106" t="inlineStr">
+      <c r="O107" t="inlineStr">
         <is>
           <t>Single row on green belt | +Maids | Vacant</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr">
+      <c r="P107" t="inlineStr">
         <is>
           <t>2024-12-05</t>
         </is>
       </c>
-      <c r="Q106" t="n">
-        <v>228</v>
-      </c>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>Liliane Najemddine</t>
-        </is>
-      </c>
-      <c r="S106" t="inlineStr">
+      <c r="Q107" t="n">
+        <v>229</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>Majd Alnaif</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
         <is>
           <t>ELITE SEVEN PROPERTIES</t>
         </is>
       </c>
-      <c r="T106" t="inlineStr">
+      <c r="T107" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U106" t="inlineStr">
+      <c r="U107" t="inlineStr">
         <is>
           <t>Your dealer is delighted to offer this spacious 5-bedroom villa located at Maple 1, Dubai Hills Estate.
 Located in a prime location within the community
@@ -12454,107 +12579,107 @@
         </is>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>HRE-Res-Map-01</t>
-        </is>
-      </c>
-      <c r="B107" s="4" t="inlineStr">
-        <is>
-          <t>6925793846</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14770930.html</t>
-        </is>
-      </c>
-      <c r="D107" s="4" t="inlineStr">
+    <row r="108">
+      <c r="A108" s="3" t="inlineStr">
+        <is>
+          <t>HRE-Res-Map-02</t>
+        </is>
+      </c>
+      <c r="B108" s="4" t="inlineStr">
+        <is>
+          <t>6925792583</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-1-14771304.html</t>
+        </is>
+      </c>
+      <c r="D108" s="4" t="inlineStr">
         <is>
           <t>Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="E107" s="4" t="inlineStr">
+      <c r="E108" s="4" t="inlineStr">
         <is>
           <t>Maple at Dubai Hills Estate</t>
         </is>
       </c>
-      <c r="F107" s="4" t="inlineStr">
+      <c r="F108" s="4" t="inlineStr">
         <is>
           <t>Maple 1</t>
         </is>
       </c>
-      <c r="G107" s="4" t="inlineStr">
+      <c r="G108" s="4" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H107" s="4" t="n">
-        <v>5200000</v>
-      </c>
-      <c r="I107" s="4" t="n">
+      <c r="H108" s="4" t="n">
+        <v>6200000</v>
+      </c>
+      <c r="I108" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J108" s="4" t="inlineStr">
+        <is>
+          <t>Townhouse</t>
+        </is>
+      </c>
+      <c r="K108" s="4" t="inlineStr">
+        <is>
+          <t>Type 3E</t>
+        </is>
+      </c>
+      <c r="L108" s="4" t="inlineStr"/>
+      <c r="M108" s="5" t="inlineStr">
+        <is>
+          <t>2734</t>
+        </is>
+      </c>
+      <c r="N108" s="6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O108" s="4" t="inlineStr">
+        <is>
+          <t>Exclusive | Green Belt Plot | Landscaped</t>
+        </is>
+      </c>
+      <c r="P108" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-18</t>
+        </is>
+      </c>
+      <c r="Q108" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="J107" s="4" t="inlineStr">
-        <is>
-          <t>Townhouse</t>
-        </is>
-      </c>
-      <c r="K107" s="4" t="inlineStr">
-        <is>
-          <t>Type 3M</t>
-        </is>
-      </c>
-      <c r="L107" s="4" t="inlineStr"/>
-      <c r="M107" s="5" t="inlineStr">
-        <is>
-          <t>2406</t>
-        </is>
-      </c>
-      <c r="N107" s="6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O107" s="4" t="inlineStr">
-        <is>
-          <t>Exclusive | 3M | Green Belt | Landscaped</t>
-        </is>
-      </c>
-      <c r="P107" s="4" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="Q107" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R107" s="4" t="inlineStr">
+      <c r="R108" s="4" t="inlineStr">
         <is>
           <t>Nicholas Holbrook</t>
         </is>
       </c>
-      <c r="S107" s="4" t="inlineStr">
+      <c r="S108" s="4" t="inlineStr">
         <is>
           <t>Holbrook Real Estate</t>
         </is>
       </c>
-      <c r="T107" s="4" t="inlineStr">
+      <c r="T108" s="4" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U107" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perfect Investor or End User Villa | Green Belt Plot | Tenanted
-- 4 Bedrooms Type 3M
-- Green Belt Plot
+      <c r="U108" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exclusive 5 Bedroom in Maple 1 with direct access to the green belt
+- 5 Bedrooms Type 3E
+- Tenanted Unit
 - 4 Bathrooms
 - Maids Room
 - Open Kitchen
 - Open Plan Dining and Living Area
-- BUA 2,387 Sq. Ft
+- BUA 2,700 Sq. Ft
 - 2 Parking Spaces
 - Lootah Main Gas
 - Chiller Included in DEWA
@@ -12567,6 +12692,8 @@
 Escape the urban hustle and unwind in the tranquility of our meticulously designed community park along with the desirable Dubai Hills Splash Park, which is a huge hit for families and tourists.
 Golf Enthusiast&amp;#39;s Paradise:
 The Dubai Hills Estate Golf Club provides a picturesque backdrop for golf enthusiasts to refine their skills.
+Expert Guidance:
+Nicholas Holbrook from Holbrook Real Estate your area specialist, brings in-depth knowledge to ensure you find the perfect home tailored to your preferences.
 Viewing:
 Call Nicholas Holbrook to schedule an exclusive viewing and explore the unparalleled elegance of Maple Dubai Hills.
 Holbrook Real Estate operates under the Penbrook Real Estate LLC Trade License
@@ -12574,130 +12701,20 @@
         </is>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>L-8567</t>
-        </is>
-      </c>
-      <c r="B108" s="4" t="inlineStr">
-        <is>
-          <t>6928564681</t>
-        </is>
-      </c>
-      <c r="C108" s="2" t="inlineStr">
-        <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14774428.html</t>
-        </is>
-      </c>
-      <c r="D108" s="4" t="inlineStr">
-        <is>
-          <t>Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="E108" s="4" t="inlineStr">
-        <is>
-          <t>Maple at Dubai Hills Estate</t>
-        </is>
-      </c>
-      <c r="F108" s="4" t="inlineStr">
-        <is>
-          <t>Maple 2</t>
-        </is>
-      </c>
-      <c r="G108" s="4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H108" s="4" t="n">
-        <v>7100000</v>
-      </c>
-      <c r="I108" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J108" s="4" t="inlineStr">
-        <is>
-          <t>Townhouse</t>
-        </is>
-      </c>
-      <c r="K108" s="4" t="inlineStr">
-        <is>
-          <t>Type 3E</t>
-        </is>
-      </c>
-      <c r="L108" s="4" t="inlineStr"/>
-      <c r="M108" s="5" t="inlineStr">
-        <is>
-          <t>2734</t>
-        </is>
-      </c>
-      <c r="N108" s="6" t="inlineStr">
-        <is>
-          <t>3481</t>
-        </is>
-      </c>
-      <c r="O108" s="4" t="inlineStr">
-        <is>
-          <t>New to Market | VOT | Big Plot | Green Belt</t>
-        </is>
-      </c>
-      <c r="P108" s="4" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="Q108" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R108" s="4" t="inlineStr">
-        <is>
-          <t>Gurnam Hallaith</t>
-        </is>
-      </c>
-      <c r="S108" s="4" t="inlineStr">
-        <is>
-          <t>EQUITY REAL ESTATES L.L.C</t>
-        </is>
-      </c>
-      <c r="T108" s="4" t="inlineStr">
-        <is>
-          <t>Available</t>
-        </is>
-      </c>
-      <c r="U108" s="4" t="inlineStr">
-        <is>
-          <t>Equity is delighted to offer this rare 5-bedroom, 4-bathroom corner unit in the sought-after Maple 2 community, ideal for families seeking extra outdoor space.
-- Big Plot
-- VOT
-- Maids Room
-- Spacious Open-Plan Living and Dining Area
-- 3481.48 Sq Ft Plot
-- Floor-to-Ceiling Windows for Natural Light
-- Permit No.: 6928564681
-Presenting this stunning 5-bedroom, 5-bathroom corner unit in the sought-after Maple community. Boasting a larger plot than the standard layout, this home offers enhanced space and privacy, backing directly onto the lush green belt. Ideally located just a short walk from the community pool, gym, and park, it’s perfect for families seeking both convenience and tranquility. 
-The villa features a spacious and bright interior, with large windows allowing for plenty of natural light throughout. Designed with modern finishes and maintained in excellent condition, it includes a well-sized maid’s room and generous living areas. Vacant on transfer, this home is move-in ready and ideal for end users or investors alike.
-Please be advised that all measurements and information are provided to the best of our knowledge. Equity disclaims any liability for inaccuracies or discrepancies.
-Equity
-RERA ORN: 43321
-Address: Office 1902, Boulevard Plaza Tower 2, Downtown Dubai, Dubai, UAE</t>
-        </is>
-      </c>
-    </row>
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>PB-S-12671</t>
+          <t>RNP-S-3549</t>
         </is>
       </c>
       <c r="B109" s="4" t="inlineStr">
         <is>
-          <t>6991640569</t>
+          <t>6991611899</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14774618.html</t>
+          <t>https://www.propertyfinder.ae/en/plp/buy/villa-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-3-14790187.html</t>
         </is>
       </c>
       <c r="D109" s="4" t="inlineStr">
@@ -12717,83 +12734,170 @@
       </c>
       <c r="G109" s="4" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H109" s="4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I109" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J109" s="4" t="inlineStr">
+        <is>
+          <t>Townhouse</t>
+        </is>
+      </c>
+      <c r="K109" s="4" t="inlineStr"/>
+      <c r="L109" s="4" t="inlineStr"/>
+      <c r="M109" s="7" t="inlineStr">
+        <is>
+          <t>2905</t>
+        </is>
+      </c>
+      <c r="N109" s="6" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="O109" s="4" t="inlineStr">
+        <is>
+          <t>Sophisticated | Furnished Villa | Maids Room</t>
+        </is>
+      </c>
+      <c r="P109" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="Q109" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R109" s="4" t="inlineStr">
+        <is>
+          <t>Nitin Chopra</t>
+        </is>
+      </c>
+      <c r="S109" s="4" t="inlineStr">
+        <is>
+          <t>Range International</t>
+        </is>
+      </c>
+      <c r="T109" s="4" t="inlineStr">
+        <is>
+          <t>Available</t>
+        </is>
+      </c>
+      <c r="U109" s="4" t="inlineStr">
+        <is>
+          <t>This exquisite &lt;strong&gt;4-bedroom villa&lt;/strong&gt;, located in the prestigious &lt;strong&gt;Maple III community at Dubai Hills Estate&lt;/strong&gt;, offers an unparalleled blend of luxury, comfort, and modern living. Designed with spaciousness and elegance in mind, the villa features a bright, open-plan layout with high ceilings and large windows, allowing for an abundance of natural light throughout.&lt;br/&gt;&lt;br/&gt;&lt;strong&gt;Property Features:&lt;/strong&gt;&lt;br/&gt;&lt;ul&gt;&lt;li&gt;4 Bedroom&lt;/li&gt;&lt;li&gt;Fully upgraded with high-quality finishes&lt;/li&gt;&lt;li&gt;Unfurnished, ideal for personal customization&lt;/li&gt;&lt;li&gt;Plot: &lt;strong&gt;3,065.02 sq ft&lt;/strong&gt; providing generous outdoor space&lt;/li&gt;&lt;li&gt;Very short walk to the central Swimming Pool and children’s play area&lt;/li&gt;&lt;li&gt;Surrounded by Lush Green Park and scenic landscaped gardens&lt;/li&gt;&lt;li&gt;Adjacent to a world-class golf course offering picturesque views&lt;/li&gt;&lt;li&gt;Numerous recreational facilities including basketball courts and cycling tracks&lt;/li&gt;&lt;li&gt;Landscaped Park for leisure and family gatherings&lt;/li&gt;&lt;li&gt;Gymnasium with state-of-the-art equipment&lt;/li&gt;&lt;li&gt;Jogging Track weaving through natural green corridors&lt;/li&gt;&lt;/ul&gt;This villa delivers exceptional value for families seeking tranquility, space, and an elevated lifestyle in a vibrant and connected neighborhood. Vacant and ready to move in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="3" t="inlineStr">
+        <is>
+          <t>TH744743</t>
+        </is>
+      </c>
+      <c r="B110" s="4" t="inlineStr">
+        <is>
+          <t>6928565013</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>https://www.propertyfinder.ae/en/plp/buy/townhouse-for-sale-dubai-dubai-hills-estate-maple-at-dubai-hills-estate-maple-2-14793852.html</t>
+        </is>
+      </c>
+      <c r="D110" s="4" t="inlineStr">
+        <is>
+          <t>Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="E110" s="4" t="inlineStr">
+        <is>
+          <t>Maple at Dubai Hills Estate</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>Maple 2</t>
+        </is>
+      </c>
+      <c r="G110" s="4" t="inlineStr">
+        <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="H109" s="4" t="n">
-        <v>7400000</v>
-      </c>
-      <c r="I109" s="4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J109" s="4" t="inlineStr">
+      <c r="H110" s="4" t="n">
+        <v>5100000</v>
+      </c>
+      <c r="I110" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J110" s="4" t="inlineStr">
         <is>
           <t>Townhouse</t>
         </is>
       </c>
-      <c r="K109" s="4" t="inlineStr">
-        <is>
-          <t>Type 3E</t>
-        </is>
-      </c>
-      <c r="L109" s="4" t="inlineStr"/>
-      <c r="M109" s="5" t="inlineStr">
-        <is>
-          <t>2768</t>
-        </is>
-      </c>
-      <c r="N109" s="6" t="inlineStr">
-        <is>
-          <t>3504</t>
-        </is>
-      </c>
-      <c r="O109" s="4" t="inlineStr">
-        <is>
-          <t>Upgraded and Extended | Owner Occupied</t>
-        </is>
-      </c>
-      <c r="P109" s="4" t="inlineStr">
-        <is>
-          <t>2025-07-18</t>
-        </is>
-      </c>
-      <c r="Q109" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="R109" s="4" t="inlineStr">
-        <is>
-          <t>Ben Greenwood</t>
-        </is>
-      </c>
-      <c r="S109" s="4" t="inlineStr">
-        <is>
-          <t>Arabian Estates</t>
-        </is>
-      </c>
-      <c r="T109" s="4" t="inlineStr">
+      <c r="K110" s="4" t="inlineStr">
+        <is>
+          <t>Type 2M</t>
+        </is>
+      </c>
+      <c r="L110" s="4" t="inlineStr"/>
+      <c r="M110" s="5" t="inlineStr">
+        <is>
+          <t>2250</t>
+        </is>
+      </c>
+      <c r="N110" s="6" t="inlineStr">
+        <is>
+          <t>2114</t>
+        </is>
+      </c>
+      <c r="O110" s="4" t="inlineStr">
+        <is>
+          <t>Greenbelt | Vacant On Transfer | Perfect Condition</t>
+        </is>
+      </c>
+      <c r="P110" s="4" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="Q110" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R110" s="4" t="inlineStr">
+        <is>
+          <t>Jordi Lambton</t>
+        </is>
+      </c>
+      <c r="S110" s="4" t="inlineStr">
+        <is>
+          <t>Betterhomes - Motor City</t>
+        </is>
+      </c>
+      <c r="T110" s="4" t="inlineStr">
         <is>
           <t>Available</t>
         </is>
       </c>
-      <c r="U109" s="4" t="inlineStr">
-        <is>
-          <t>Arabian Estates is delighted to Exclusively present this 5 bedroom property in Maple 3, Dubai Hills Estate. 
-With a range of internal and external modifications and upgrades, this property offers the perfect chance for any end user to move in hassle free. The open plan living in this property allows any new owner to seamlessly blend inside/outside living making the most of what this stunning home has to offer.
-Key features
-•	Upgraded Kitchen
-•	Upgraded Flooring
-•	Entrance Extension
-•	Vacant on Transfer
-•	Corner Plot, Greenbelt Location
-•	Walking Distance to Communal Pool &amp;amp; Gym
-•	2,700 sq.ft BUA
-•	3,504 sq.ft Plot
-•	Immaculate Condition
-•	5 Bedroom Plus Maids End Unit
-Agent Contact Details – Ben Greenwood, Executive Director, Arabian Estates 
-Maple 3 within Dubai Hills Estate is part of one of the most ambitious, centrally-located developments in Dubai. an inspiring green gateway focused on sustainable living in harmony with nature.
-This exquisite 5-bedroom villa offers an unparalleled blend of luxury, comfort, and modern living. Designed with spaciousness and elegance in mind, the villa features a bright, open-plan layout with high ceilings and large windows, allowing for an abundance of natural light throughout.
-These Elegant homes are designed exclusively for those with a taste for contemporary living. This is where convenience meets you in the comfort of your home. Located between Sheikh Mohammad Bin Zayed Road and Al Khail Road, residents are mere minutes away from Downtown Dubai and other business, financial, retail, and tourism landmarks.</t>
+      <c r="U110" s="4" t="inlineStr">
+        <is>
+          <t>Betterhomes &amp;amp; Jordi Lambton are proud to exclusively present this 3 bedroom type 2M in Maple 2, Dubai Hills Estate.
+- Exclusively Listed With Jordi Lambton &amp;amp; Betterhomes
+- Vacant On Transfer
+- 3 bed + Maids
+- 2,228 sq.ft BUA
+- 2,114 sq.ft Plot
+- Single Row - Greenbelt backing 
+- Well Maintained
+Discover this beautifully maintained 3-bedroom townhouse in the sought-after Maple community, Dubai Hills Estate. Perfectly positioned, this home backs directly onto a lush green belt, offering enhanced privacy and serene views. The open-plan layout features a spacious living and dining area, a sleek modern kitchen, and large windows that fill the space with natural light. Upstairs, the master suite boasts a walk-in closet, en-suite bathroom, and green belt views. Two additional bedrooms share a well-appointed bathroom. The landscaped garden is ideal for relaxing or entertaining. 
+Located in a quiet, family-friendly area just minutes from parks, schools, Dubai Hills Mall, and King’s Hospital, this is a rare opportunity not to be missed.
+Contact Jordi Lambton &amp;amp; Betterhomes Today!</t>
         </is>
       </c>
     </row>
@@ -12907,6 +13011,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C107" r:id="rId106"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C108" r:id="rId107"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C109" r:id="rId108"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C110" r:id="rId109"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
